--- a/docs/CareConnect-Specimen-1.xlsx
+++ b/docs/CareConnect-Specimen-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="462">
   <si>
     <t>Path</t>
   </si>
@@ -473,7 +473,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -715,41 +715,10 @@
 </t>
   </si>
   <si>
-    <t>Specimen.type.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Specimen.type.coding.system</t>
@@ -1018,6 +987,17 @@
 </t>
   </si>
   <si>
+    <t>A coded value of the fasting status when the specimen was collected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Specimen.collection.modifierExtension</t>
   </si>
   <si>
@@ -1155,18 +1135,6 @@
   </si>
   <si>
     <t>Specimen.collection.bodySite.coding.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Specimen.collection.bodySite.coding.system</t>
@@ -1622,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL110"/>
+  <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1631,7 +1599,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.90234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5587,10 +5555,10 @@
         <v>224</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5667,7 +5635,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5675,7 +5643,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>48</v>
@@ -5687,25 +5655,29 @@
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>39</v>
@@ -5747,7 +5719,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5762,29 +5734,29 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>39</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5793,19 +5765,19 @@
         <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5843,25 +5815,25 @@
         <v>39</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5870,18 +5842,18 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>39</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5901,21 +5873,21 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5963,10 +5935,10 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>48</v>
@@ -5978,18 +5950,18 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>39</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5997,7 +5969,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>48</v>
@@ -6009,19 +5981,21 @@
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
       </c>
@@ -6069,7 +6043,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6084,18 +6058,18 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>39</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6103,7 +6077,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>48</v>
@@ -6118,26 +6092,26 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>39</v>
@@ -6179,7 +6153,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6194,18 +6168,18 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6216,7 +6190,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -6231,15 +6205,17 @@
         <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -6287,7 +6263,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6302,18 +6278,18 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6336,17 +6312,17 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -6395,10 +6371,10 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>48</v>
@@ -6410,18 +6386,18 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6429,7 +6405,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>48</v>
@@ -6444,18 +6420,16 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6503,7 +6477,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6518,18 +6492,18 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6540,7 +6514,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6549,23 +6523,21 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6613,13 +6585,13 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
@@ -6628,18 +6600,18 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6650,7 +6622,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6659,23 +6631,21 @@
         <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6723,13 +6693,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6738,18 +6708,18 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6757,7 +6727,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>48</v>
@@ -6769,21 +6739,19 @@
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6831,10 +6799,10 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>48</v>
@@ -6843,21 +6811,21 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>39</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6877,16 +6845,16 @@
         <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>293</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6937,7 +6905,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>291</v>
+        <v>114</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6952,18 +6920,18 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>297</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6986,17 +6954,15 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -7033,19 +6999,17 @@
         <v>39</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7060,7 +7024,7 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -7071,9 +7035,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>39</v>
       </c>
@@ -7082,7 +7048,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
@@ -7094,17 +7060,15 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -7153,7 +7117,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7162,55 +7126,57 @@
         <v>41</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -7259,33 +7225,33 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>317</v>
+        <v>91</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>318</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7305,16 +7271,16 @@
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7365,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>114</v>
+        <v>320</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7380,18 +7346,18 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>115</v>
+        <v>324</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>39</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7402,7 +7368,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -7411,16 +7377,16 @@
         <v>39</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>328</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7459,23 +7425,25 @@
         <v>39</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AB54" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>121</v>
+        <v>327</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7484,22 +7452,20 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>39</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>39</v>
       </c>
@@ -7520,13 +7486,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7577,13 +7543,13 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -7592,51 +7558,49 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>39</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>100</v>
+        <v>341</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -7661,13 +7625,13 @@
         <v>39</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>39</v>
+        <v>343</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>39</v>
+        <v>344</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
@@ -7685,13 +7649,13 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -7700,18 +7664,18 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>39</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7731,18 +7695,20 @@
         <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>328</v>
+        <v>133</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7767,13 +7733,13 @@
         <v>39</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>39</v>
+        <v>351</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7791,7 +7757,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7806,18 +7772,18 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7837,16 +7803,16 @@
         <v>39</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>336</v>
+        <v>112</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>113</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7897,7 +7863,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>334</v>
+        <v>114</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7912,29 +7878,29 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>338</v>
+        <v>115</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>340</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7946,15 +7912,17 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>342</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>343</v>
+        <v>95</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7991,25 +7959,25 @@
         <v>39</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -8018,18 +7986,18 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>346</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8040,7 +8008,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -8049,19 +8017,23 @@
         <v>39</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>348</v>
+        <v>208</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
@@ -8085,37 +8057,35 @@
         <v>39</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -8124,20 +8094,22 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>352</v>
+        <v>214</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>353</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>39</v>
       </c>
@@ -8155,21 +8127,23 @@
         <v>39</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>355</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>356</v>
+        <v>209</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
       </c>
@@ -8193,14 +8167,14 @@
         <v>39</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
       </c>
@@ -8217,13 +8191,13 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>354</v>
+        <v>213</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -8232,18 +8206,18 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>360</v>
+        <v>214</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>361</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8349,11 +8323,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8375,14 +8349,12 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -8446,7 +8418,7 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
@@ -8457,9 +8429,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>39</v>
       </c>
@@ -8477,23 +8451,19 @@
         <v>39</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>39</v>
       </c>
@@ -8529,17 +8499,19 @@
         <v>39</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AB64" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8554,28 +8526,26 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>215</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>48</v>
@@ -8590,26 +8560,26 @@
         <v>49</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>39</v>
@@ -8627,13 +8597,13 @@
         <v>39</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>365</v>
+        <v>39</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>39</v>
@@ -8651,13 +8621,13 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -8666,18 +8636,18 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8688,7 +8658,7 @@
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>39</v>
@@ -8697,18 +8667,20 @@
         <v>39</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>111</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8757,7 +8729,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8772,18 +8744,18 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>39</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8791,10 +8763,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>39</v>
@@ -8803,19 +8775,21 @@
         <v>39</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>39</v>
       </c>
@@ -8851,25 +8825,25 @@
         <v>39</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -8878,31 +8852,29 @@
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>39</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>39</v>
@@ -8911,19 +8883,21 @@
         <v>39</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
       </c>
@@ -8971,13 +8945,13 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -8986,18 +8960,18 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>39</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9017,19 +8991,23 @@
         <v>39</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
       </c>
@@ -9077,7 +9055,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9092,29 +9070,29 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>39</v>
@@ -9123,21 +9101,23 @@
         <v>39</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
       </c>
@@ -9173,25 +9153,25 @@
         <v>39</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
@@ -9200,18 +9180,18 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9219,10 +9199,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>39</v>
@@ -9234,17 +9214,15 @@
         <v>39</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>228</v>
+        <v>368</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9293,22 +9271,22 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>231</v>
+        <v>367</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>91</v>
+        <v>370</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>39</v>
@@ -9342,13 +9320,13 @@
         <v>39</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9399,7 +9377,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9414,7 +9392,7 @@
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>39</v>
@@ -9429,14 +9407,14 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>39</v>
@@ -9445,29 +9423,27 @@
         <v>39</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9509,13 +9485,13 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -9524,13 +9500,13 @@
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>245</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -9539,35 +9515,35 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9617,13 +9593,13 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -9632,13 +9608,13 @@
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>252</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" hidden="true">
@@ -9651,7 +9627,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>48</v>
@@ -9663,21 +9639,19 @@
         <v>39</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>254</v>
+        <v>375</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>39</v>
       </c>
@@ -9725,7 +9699,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>257</v>
+        <v>374</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9740,18 +9714,18 @@
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9759,7 +9733,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>48</v>
@@ -9771,21 +9745,19 @@
         <v>39</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>261</v>
+        <v>379</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>262</v>
+        <v>380</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>39</v>
       </c>
@@ -9809,13 +9781,13 @@
         <v>39</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>39</v>
+        <v>382</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
@@ -9833,7 +9805,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9848,18 +9820,18 @@
         <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>266</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9870,7 +9842,7 @@
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>39</v>
@@ -9879,23 +9851,19 @@
         <v>39</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>268</v>
+        <v>384</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>269</v>
+        <v>385</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>39</v>
       </c>
@@ -9943,13 +9911,13 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -9958,18 +9926,18 @@
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>274</v>
+        <v>387</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>275</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9989,23 +9957,19 @@
         <v>39</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>277</v>
+        <v>390</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>39</v>
       </c>
@@ -10053,7 +10017,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10068,18 +10032,18 @@
         <v>39</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>283</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10102,13 +10066,13 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10159,7 +10123,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10171,10 +10135,10 @@
         <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>39</v>
@@ -10185,7 +10149,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10291,7 +10255,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10399,11 +10363,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10428,7 +10392,7 @@
         <v>100</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>97</v>
@@ -10481,7 +10445,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10507,7 +10471,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10518,7 +10482,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>39</v>
@@ -10527,16 +10491,16 @@
         <v>39</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10587,13 +10551,13 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
@@ -10602,18 +10566,18 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>388</v>
+        <v>107</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>39</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10636,13 +10600,13 @@
         <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>390</v>
+        <v>112</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>391</v>
+        <v>113</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10669,13 +10633,13 @@
         <v>39</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>393</v>
+        <v>39</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10693,7 +10657,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>389</v>
+        <v>114</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10708,7 +10672,7 @@
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>39</v>
@@ -10719,11 +10683,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10742,15 +10706,17 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>395</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>396</v>
+        <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>39</v>
@@ -10787,19 +10753,19 @@
         <v>39</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>394</v>
+        <v>121</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10814,18 +10780,18 @@
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>398</v>
+        <v>115</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>399</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10842,22 +10808,26 @@
         <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>401</v>
+        <v>123</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
       </c>
@@ -10881,13 +10851,13 @@
         <v>39</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>39</v>
@@ -10905,7 +10875,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10920,18 +10890,18 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10942,7 +10912,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>39</v>
@@ -10951,19 +10921,23 @@
         <v>39</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>404</v>
+        <v>134</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
       </c>
@@ -10987,13 +10961,13 @@
         <v>39</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>39</v>
@@ -11011,28 +10985,28 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>403</v>
+        <v>140</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>406</v>
+        <v>131</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" hidden="true">
@@ -11057,19 +11031,21 @@
         <v>39</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>39</v>
       </c>
@@ -11081,7 +11057,7 @@
         <v>39</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>39</v>
@@ -11117,7 +11093,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11132,13 +11108,13 @@
         <v>39</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" hidden="true">
@@ -11147,14 +11123,14 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>39</v>
@@ -11163,19 +11139,19 @@
         <v>39</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11189,7 +11165,7 @@
         <v>39</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>39</v>
@@ -11225,13 +11201,13 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -11240,13 +11216,13 @@
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -11255,36 +11231,34 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>39</v>
@@ -11333,13 +11307,13 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
@@ -11348,13 +11322,13 @@
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -11370,7 +11344,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>39</v>
@@ -11382,15 +11356,17 @@
         <v>49</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>411</v>
+        <v>167</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>39</v>
@@ -11439,13 +11415,13 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>410</v>
+        <v>170</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
@@ -11454,18 +11430,18 @@
         <v>39</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>413</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11491,10 +11467,10 @@
         <v>111</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>113</v>
+        <v>413</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11545,7 +11521,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>114</v>
+        <v>411</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11560,7 +11536,7 @@
         <v>39</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>39</v>
@@ -11575,14 +11551,14 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>39</v>
@@ -11594,17 +11570,15 @@
         <v>39</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>39</v>
@@ -11629,37 +11603,37 @@
         <v>39</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>39</v>
+        <v>418</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>39</v>
+        <v>419</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>121</v>
+        <v>415</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
@@ -11668,18 +11642,18 @@
         <v>39</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>39</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11696,26 +11670,22 @@
         <v>39</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>123</v>
+        <v>422</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
@@ -11739,13 +11709,13 @@
         <v>39</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
@@ -11763,7 +11733,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>130</v>
+        <v>421</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -11778,18 +11748,18 @@
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>91</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11809,23 +11779,19 @@
         <v>39</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>134</v>
+        <v>427</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>39</v>
       </c>
@@ -11849,13 +11815,13 @@
         <v>39</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
@@ -11873,7 +11839,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -11888,18 +11854,18 @@
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>131</v>
+        <v>429</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>141</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11919,21 +11885,19 @@
         <v>39</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>61</v>
+        <v>432</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>143</v>
+        <v>433</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>144</v>
+        <v>434</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>39</v>
       </c>
@@ -11945,7 +11909,7 @@
         <v>39</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>39</v>
@@ -11957,13 +11921,13 @@
         <v>39</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>39</v>
+        <v>435</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>39</v>
+        <v>436</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>39</v>
@@ -11981,7 +11945,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>147</v>
+        <v>431</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -11996,18 +11960,18 @@
         <v>39</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>148</v>
+        <v>437</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>149</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12027,20 +11991,18 @@
         <v>39</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>111</v>
+        <v>440</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -12053,7 +12015,7 @@
         <v>39</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>39</v>
@@ -12089,13 +12051,13 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>155</v>
+        <v>439</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -12104,18 +12066,18 @@
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>156</v>
+        <v>442</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>157</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12135,16 +12097,16 @@
         <v>39</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12195,7 +12157,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12210,29 +12172,29 @@
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>39</v>
@@ -12241,19 +12203,19 @@
         <v>39</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12291,25 +12253,25 @@
         <v>39</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
@@ -12318,18 +12280,18 @@
         <v>39</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12349,16 +12311,16 @@
         <v>39</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>111</v>
+        <v>447</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12409,7 +12371,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12424,18 +12386,18 @@
         <v>39</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12455,16 +12417,16 @@
         <v>39</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12491,13 +12453,13 @@
         <v>39</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>429</v>
+        <v>39</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>39</v>
@@ -12515,7 +12477,7 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -12530,18 +12492,18 @@
         <v>39</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>201</v>
+        <v>456</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>431</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12549,7 +12511,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>48</v>
@@ -12564,13 +12526,13 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12621,10 +12583,10 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>48</v>
@@ -12636,867 +12598,17 @@
         <v>39</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL110" t="s" s="2">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL110">
+  <autoFilter ref="A1:AL102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13506,7 +12618,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI109">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
